--- a/Base/Teams/Colts/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Colts/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>4</v>

--- a/Base/Teams/Colts/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Colts/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/Base/Teams/Colts/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Colts/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C3">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Colts/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Colts/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="C2">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Colts/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Colts/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>4</v>
